--- a/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-07.xlsx
+++ b/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-07.xlsx
@@ -41,7 +41,7 @@
     <t>Status(+/-)</t>
   </si>
   <si>
-    <t>Progress</t>
+    <t>Total Plan</t>
   </si>
 </sst>
 </file>
@@ -503,11 +503,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="3">
-        <v>-1154</v>
+        <v>-2800</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -516,7 +518,9 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -525,7 +529,9 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -534,7 +540,9 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -543,7 +551,9 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -552,7 +562,9 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -561,7 +573,9 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -570,7 +584,9 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -579,7 +595,9 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -588,7 +606,9 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -597,7 +617,9 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -606,7 +628,9 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -615,7 +639,9 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -624,7 +650,9 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -633,7 +661,9 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -642,7 +672,9 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -651,7 +683,9 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -660,7 +694,9 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -669,7 +705,9 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -678,7 +716,9 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -687,7 +727,9 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -696,7 +738,9 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -705,7 +749,9 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -714,7 +760,9 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -723,7 +771,9 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -732,7 +782,9 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -741,7 +793,9 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>27</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -750,7 +804,9 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -759,7 +815,9 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>29</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -768,7 +826,9 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>

--- a/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-07.xlsx
+++ b/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-07.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>September 2022Production Schedule / Result For Assembly UP</t>
   </si>
@@ -42,6 +42,27 @@
   </si>
   <si>
     <t>Total Plan</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
   </si>
 </sst>
 </file>
@@ -510,7 +531,9 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -521,7 +544,9 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -532,7 +557,9 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -543,7 +570,9 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -554,7 +583,9 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -565,7 +596,9 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -576,7 +609,9 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -587,7 +622,9 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -598,7 +635,9 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -609,7 +648,9 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -620,7 +661,9 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -631,7 +674,9 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -642,7 +687,9 @@
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -653,7 +700,9 @@
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -664,7 +713,9 @@
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -675,7 +726,9 @@
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -686,7 +739,9 @@
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -697,7 +752,9 @@
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -708,7 +765,9 @@
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -719,7 +778,9 @@
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -730,7 +791,9 @@
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -741,7 +804,9 @@
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -752,7 +817,9 @@
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -763,7 +830,9 @@
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -774,7 +843,9 @@
       <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -785,7 +856,9 @@
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -796,7 +869,9 @@
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -807,7 +882,9 @@
       <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -818,7 +895,9 @@
       <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -829,7 +908,9 @@
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>

--- a/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-07.xlsx
+++ b/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-07.xlsx
@@ -535,7 +535,9 @@
         <v>9</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>115</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -548,7 +550,9 @@
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>115</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -561,7 +565,9 @@
         <v>11</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -574,7 +580,9 @@
         <v>12</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -587,7 +595,9 @@
         <v>13</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>150</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -600,7 +610,9 @@
         <v>14</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>150</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -613,7 +625,9 @@
         <v>15</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>115</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -626,7 +640,9 @@
         <v>9</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>150</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -639,7 +655,9 @@
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>115</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -652,7 +670,9 @@
         <v>11</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -665,7 +685,9 @@
         <v>12</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -678,7 +700,9 @@
         <v>13</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>150</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -691,7 +715,9 @@
         <v>14</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>150</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -704,7 +730,9 @@
         <v>15</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>115</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -717,7 +745,9 @@
         <v>9</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>150</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -730,7 +760,9 @@
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>115</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -743,7 +775,9 @@
         <v>11</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -756,7 +790,9 @@
         <v>12</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -769,7 +805,9 @@
         <v>13</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>150</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -782,7 +820,9 @@
         <v>14</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>150</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -795,7 +835,9 @@
         <v>15</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>115</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -808,7 +850,9 @@
         <v>9</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <v>150</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -821,7 +865,9 @@
         <v>10</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>115</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -834,7 +880,9 @@
         <v>11</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -847,7 +895,9 @@
         <v>12</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -860,7 +910,9 @@
         <v>13</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1">
+        <v>150</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -873,7 +925,9 @@
         <v>14</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1">
+        <v>150</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -886,7 +940,9 @@
         <v>15</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1">
+        <v>115</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -899,7 +955,9 @@
         <v>9</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1">
+        <v>115</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -912,7 +970,9 @@
         <v>10</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>

--- a/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-07.xlsx
+++ b/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-07.xlsx
@@ -29,7 +29,7 @@
     <t>Over Time</t>
   </si>
   <si>
-    <t>U200</t>
+    <t>B450</t>
   </si>
   <si>
     <t>Plan</t>
@@ -551,7 +551,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -626,7 +626,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -716,7 +716,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -731,7 +731,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -746,7 +746,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -761,7 +761,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -851,7 +851,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -926,7 +926,7 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -956,7 +956,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
